--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="409">
   <si>
     <t>Path</t>
   </si>
@@ -512,10 +512,7 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -1482,7 +1479,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3159,10 +3156,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
@@ -3213,11 +3210,9 @@
       <c r="W15" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="X15" s="2"/>
+      <c r="Y15" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3259,10 +3254,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3270,11 +3265,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3296,16 +3291,16 @@
         <v>153</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3330,11 +3325,11 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3352,7 +3347,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3367,27 +3362,27 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3410,19 +3405,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3471,7 +3466,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3486,19 +3481,19 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3506,7 +3501,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3529,16 +3524,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3588,7 +3583,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3609,13 +3604,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3623,11 +3618,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3646,19 +3641,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3707,7 +3702,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3722,19 +3717,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3742,11 +3737,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3765,19 +3760,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3826,7 +3821,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3841,19 +3836,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3861,7 +3856,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3884,16 +3879,16 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3943,7 +3938,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3964,13 +3959,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3978,7 +3973,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4001,17 +3996,17 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4060,7 +4055,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4075,19 +4070,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4095,7 +4090,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4121,16 +4116,16 @@
         <v>153</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4179,7 +4174,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4188,7 +4183,7 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
@@ -4197,24 +4192,24 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4240,16 +4235,16 @@
         <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4274,14 +4269,14 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4298,7 +4293,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4307,7 +4302,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4322,7 +4317,7 @@
         <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4333,11 +4328,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4359,16 +4354,16 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4393,14 +4388,14 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4417,7 +4412,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4435,24 +4430,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4475,19 +4470,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4536,7 +4531,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4557,10 +4552,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4571,7 +4566,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4597,13 +4592,13 @@
         <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4629,14 +4624,14 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4653,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4671,24 +4666,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4714,16 +4709,16 @@
         <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4748,14 +4743,14 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4772,7 +4767,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4793,10 +4788,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4807,7 +4802,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4830,16 +4825,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4889,7 +4884,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4907,24 +4902,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4947,16 +4942,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5006,7 +5001,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5024,24 +5019,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5064,19 +5059,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5125,7 +5120,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5137,19 +5132,19 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5160,7 +5155,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5186,10 +5181,10 @@
         <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5240,7 +5235,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5264,7 +5259,7 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5275,7 +5270,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5304,7 +5299,7 @@
         <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>104</v>
@@ -5357,7 +5352,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5381,7 +5376,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5392,11 +5387,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5418,10 +5413,10 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
@@ -5476,7 +5471,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5511,7 +5506,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5534,13 +5529,13 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5591,7 +5586,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5600,7 +5595,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5612,10 +5607,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5626,7 +5621,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5649,13 +5644,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5706,7 +5701,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5715,7 +5710,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5727,10 +5722,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5741,7 +5736,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5767,16 +5762,16 @@
         <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5804,11 +5799,11 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5825,7 +5820,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5843,13 +5838,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5860,7 +5855,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5886,16 +5881,16 @@
         <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5920,14 +5915,14 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
       </c>
@@ -5944,7 +5939,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5962,13 +5957,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5979,7 +5974,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6002,17 +5997,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6061,7 +6056,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6085,7 +6080,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6096,7 +6091,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6122,10 +6117,10 @@
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6176,7 +6171,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6197,10 +6192,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6211,7 +6206,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6234,16 +6229,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6293,7 +6288,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6314,10 +6309,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6328,7 +6323,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6351,16 +6346,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6410,7 +6405,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6431,10 +6426,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6445,7 +6440,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6468,19 +6463,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6529,7 +6524,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6550,10 +6545,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6564,7 +6559,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6590,10 +6585,10 @@
         <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6644,7 +6639,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6668,7 +6663,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6679,7 +6674,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6708,7 +6703,7 @@
         <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>104</v>
@@ -6761,7 +6756,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6785,7 +6780,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6796,11 +6791,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6822,10 +6817,10 @@
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
@@ -6880,7 +6875,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6915,7 +6910,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6941,16 +6936,16 @@
         <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6975,14 +6970,14 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
       </c>
@@ -6999,7 +6994,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>55</v>
@@ -7017,16 +7012,16 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7034,7 +7029,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7057,19 +7052,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7118,7 +7113,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7136,24 +7131,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7179,16 +7174,16 @@
         <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7213,14 +7208,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7237,7 +7232,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7246,7 +7241,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7261,7 +7256,7 @@
         <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7272,11 +7267,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7298,16 +7293,16 @@
         <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7332,14 +7327,14 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7356,7 +7351,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7374,24 +7369,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7417,16 +7412,16 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="M51" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7475,7 +7470,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7496,10 +7491,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="423">
   <si>
     <t>Path</t>
   </si>
@@ -328,33 +328,66 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>event-location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {event-location}
+</t>
+  </si>
+  <si>
+    <t>Where event occurred</t>
+  </si>
+  <si>
+    <t>The principal physical location where the {{title}} was performed.</t>
+  </si>
+  <si>
+    <t>May reference only *Provenance* resources deemed “relevant” or important. This element does not point to the Provenance associated with the current version of the resource - as it would be created after this version existed. The Provenance for the current version can be retrieved with a [` _revinclude`](search.html#revinclude).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>EVN.7</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -362,6 +395,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -512,6 +548,9 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
+    <t>If this is from a Post-Acute Care Assessment, value should be survey.</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
@@ -656,8 +695,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
-</t>
+    <t>dateTime
+PeriodTiminginstant</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -740,6 +779,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConcept</t>
+  </si>
+  <si>
     <t>Actual result</t>
   </si>
   <si>
@@ -1021,6 +1064,9 @@
   </si>
   <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1446,7 +1492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1456,7 +1502,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1478,7 +1524,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="64.703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -2446,7 +2492,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2465,17 +2511,15 @@
         <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>45</v>
@@ -2512,16 +2556,14 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>105</v>
@@ -2548,7 +2590,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2557,45 +2599,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2643,7 +2685,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2652,22 +2694,22 @@
         <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2678,11 +2720,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2695,23 +2737,25 @@
         <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2760,7 +2804,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2772,22 +2816,22 @@
         <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2795,11 +2839,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2818,17 +2862,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2877,7 +2921,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2892,19 +2936,19 @@
         <v>67</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -2912,11 +2956,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2935,18 +2979,18 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -2994,7 +3038,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3009,16 +3053,16 @@
         <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3029,43 +3073,41 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3089,13 +3131,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3113,13 +3155,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3131,16 +3173,16 @@
         <v>147</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AM14" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3148,7 +3190,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3165,25 +3207,25 @@
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3208,11 +3250,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3230,13 +3274,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3245,19 +3289,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3265,11 +3309,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3285,22 +3329,22 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3325,11 +3369,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3347,13 +3393,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3362,31 +3408,31 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AN16" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AO16" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3405,19 +3451,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3442,13 +3488,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3466,10 +3510,10 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
@@ -3484,24 +3528,24 @@
         <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3509,10 +3553,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3524,18 +3568,20 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3583,13 +3629,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3598,19 +3644,19 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3618,18 +3664,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3641,20 +3687,18 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3702,13 +3746,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3717,19 +3761,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3737,11 +3781,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3760,19 +3804,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3821,7 +3865,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3836,19 +3880,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3856,11 +3900,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3879,18 +3923,20 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3938,7 +3984,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3953,19 +3999,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3973,7 +4019,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3981,10 +4027,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -3996,18 +4042,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4055,13 +4101,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4070,19 +4116,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4090,7 +4136,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4098,10 +4144,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4113,19 +4159,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4174,42 +4218,42 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4229,22 +4273,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4269,13 +4313,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4293,7 +4337,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4302,7 +4346,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4311,35 +4355,35 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4351,19 +4395,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4388,13 +4432,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4412,16 +4456,16 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4430,28 +4474,28 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4470,19 +4514,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4507,13 +4551,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4531,7 +4575,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4549,24 +4593,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4577,7 +4621,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4589,18 +4633,20 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4624,37 +4670,37 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4666,24 +4712,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4706,20 +4752,18 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4743,13 +4787,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4767,7 +4811,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4785,24 +4829,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4825,18 +4869,20 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4860,13 +4906,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4884,7 +4930,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4902,24 +4948,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4942,16 +4988,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5001,7 +5047,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5019,24 +5065,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5047,7 +5093,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5059,20 +5105,18 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5120,42 +5164,42 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5166,7 +5210,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5178,16 +5222,20 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5235,19 +5283,19 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5256,10 +5304,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5270,18 +5318,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5293,17 +5341,15 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5352,19 +5398,19 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5376,7 +5422,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5387,11 +5433,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>325</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5404,26 +5450,24 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5471,7 +5515,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5495,7 +5539,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5506,39 +5550,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5586,19 +5634,19 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5607,10 +5655,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5621,7 +5669,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5644,13 +5692,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5701,7 +5749,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5710,7 +5758,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5722,10 +5770,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5736,7 +5784,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5759,20 +5807,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5796,13 +5840,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5820,7 +5864,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5829,7 +5873,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5838,13 +5882,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>348</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>259</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5855,7 +5899,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5866,7 +5910,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5878,19 +5922,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5915,37 +5959,37 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5957,13 +6001,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5974,7 +6018,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5985,7 +6029,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -5997,17 +6041,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>357</v>
+        <v>164</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6032,13 +6078,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6056,13 +6102,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6074,13 +6120,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>361</v>
+        <v>272</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6091,7 +6137,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6114,16 +6160,18 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>57</v>
+        <v>371</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6171,7 +6219,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6192,10 +6240,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6206,7 +6254,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6217,7 +6265,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6226,20 +6274,18 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>367</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6288,13 +6334,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6309,10 +6355,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6323,7 +6369,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6346,16 +6392,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6405,7 +6451,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6426,10 +6472,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6440,7 +6486,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6463,20 +6509,18 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6524,7 +6568,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6545,10 +6589,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6559,7 +6603,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6570,7 +6614,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6579,19 +6623,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6639,19 +6687,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6660,10 +6708,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6674,18 +6722,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6697,17 +6745,15 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6756,19 +6802,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6780,7 +6826,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6791,11 +6837,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>325</v>
+        <v>117</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6808,26 +6854,24 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6875,7 +6919,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6899,7 +6943,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6910,42 +6954,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>392</v>
+        <v>120</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6970,13 +7014,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -6994,34 +7038,34 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7029,7 +7073,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7037,7 +7081,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>55</v>
@@ -7052,19 +7096,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>397</v>
+        <v>164</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>232</v>
+        <v>405</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7089,13 +7133,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7113,10 +7157,10 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>55</v>
@@ -7131,24 +7175,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7168,22 +7212,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>411</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>245</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7208,13 +7252,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7232,7 +7276,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7241,7 +7285,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7250,35 +7294,35 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7290,19 +7334,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>251</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>252</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>253</v>
+        <v>418</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7327,13 +7371,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7351,16 +7395,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7369,28 +7413,28 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7409,19 +7453,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>264</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>265</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7446,13 +7490,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7470,7 +7514,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7488,23 +7532,142 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
+  <autoFilter ref="A1:AO52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7514,7 +7677,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="427">
   <si>
     <t>Path</t>
   </si>
@@ -379,6 +379,19 @@
   </si>
   <si>
     <t>.participation[typeCode=LOC].role</t>
+  </si>
+  <si>
+    <t>device-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://pacioproject.org/StructureDefinition/device-patient-used}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1492,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2718,13 +2731,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2734,16 +2749,16 @@
         <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>118</v>
@@ -2751,12 +2766,8 @@
       <c r="L11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2804,7 +2815,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2813,7 +2824,7 @@
         <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>106</v>
@@ -2839,11 +2850,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2856,23 +2867,25 @@
         <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2921,7 +2934,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2933,22 +2946,22 @@
         <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -2956,11 +2969,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2979,17 +2992,17 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
@@ -3038,7 +3051,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3053,19 +3066,19 @@
         <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3073,11 +3086,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3096,18 +3109,18 @@
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3155,7 +3168,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3170,16 +3183,16 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3190,43 +3203,41 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3250,13 +3261,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3274,13 +3285,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3289,19 +3300,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3309,7 +3320,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3326,25 +3337,25 @@
         <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3369,13 +3380,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3393,13 +3404,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3408,19 +3419,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3428,11 +3439,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3448,22 +3459,22 @@
         <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3488,11 +3499,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3510,13 +3523,13 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
@@ -3525,31 +3538,31 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3568,19 +3581,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3605,13 +3618,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3629,10 +3640,10 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>55</v>
@@ -3644,27 +3655,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>45</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3672,10 +3683,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3687,18 +3698,20 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3746,13 +3759,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3761,19 +3774,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3781,18 +3794,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3804,20 +3817,18 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3865,13 +3876,13 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -3880,19 +3891,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3900,11 +3911,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3923,19 +3934,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3984,7 +3995,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3999,19 +4010,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4019,11 +4030,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4042,18 +4053,20 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4101,7 +4114,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4116,19 +4129,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4136,7 +4149,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4144,10 +4157,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4159,18 +4172,18 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4218,13 +4231,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4233,19 +4246,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4253,7 +4266,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4261,10 +4274,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4276,19 +4289,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4337,42 +4348,42 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4392,22 +4403,22 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4432,13 +4443,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4456,7 +4467,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4465,7 +4476,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4474,35 +4485,35 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4514,19 +4525,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4551,13 +4562,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4575,16 +4586,16 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
@@ -4593,28 +4604,28 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4633,19 +4644,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>275</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4670,13 +4681,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4694,7 +4705,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4712,24 +4723,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4740,7 +4751,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4752,18 +4763,20 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4787,13 +4800,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4811,13 +4824,13 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -4829,24 +4842,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4869,20 +4882,18 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4906,31 +4917,31 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4948,24 +4959,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4988,18 +4999,20 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5023,13 +5036,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5047,7 +5060,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5065,24 +5078,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5105,16 +5118,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5164,7 +5177,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5182,24 +5195,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5210,7 +5223,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5222,20 +5235,18 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5283,42 +5294,42 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5329,7 +5340,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5341,16 +5352,20 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5398,31 +5413,31 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5433,18 +5448,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5456,17 +5471,15 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5515,31 +5528,31 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5554,7 +5567,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5567,26 +5580,24 @@
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5634,7 +5645,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5658,7 +5669,7 @@
         <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5669,39 +5680,43 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5749,19 +5764,19 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5770,10 +5785,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>349</v>
+        <v>98</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5784,7 +5799,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5807,13 +5822,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5864,7 +5879,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5873,7 +5888,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5885,7 +5900,7 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>353</v>
@@ -5922,7 +5937,7 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>355</v>
@@ -5930,12 +5945,8 @@
       <c r="L38" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -5959,13 +5970,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5992,7 +6003,7 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>67</v>
@@ -6001,13 +6012,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>272</v>
+        <v>357</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6018,7 +6029,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6029,7 +6040,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6041,19 +6052,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6078,13 +6089,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6102,13 +6113,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6120,13 +6131,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6137,7 +6148,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6148,7 +6159,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6160,17 +6171,19 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6195,13 +6208,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6219,13 +6232,13 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
@@ -6237,13 +6250,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>375</v>
+        <v>276</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6254,7 +6267,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6277,16 +6290,18 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>57</v>
+        <v>375</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6334,7 +6349,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6355,7 +6370,7 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>379</v>
@@ -6380,7 +6395,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6389,20 +6404,18 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>384</v>
-      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6457,7 +6470,7 @@
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6472,10 +6485,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6486,7 +6499,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6509,16 +6522,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6568,7 +6581,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6589,10 +6602,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6603,7 +6616,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6626,20 +6639,18 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6687,7 +6698,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6708,10 +6719,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6722,7 +6733,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6733,7 +6744,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6742,19 +6753,23 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6802,19 +6817,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6823,10 +6838,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6837,18 +6852,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6860,17 +6875,15 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6919,31 +6932,31 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6954,11 +6967,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6971,26 +6984,24 @@
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>341</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7038,7 +7049,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7062,7 +7073,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>98</v>
+        <v>337</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7073,42 +7084,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>406</v>
+        <v>124</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7133,13 +7144,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7157,34 +7168,34 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>409</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>184</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7192,7 +7203,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7200,7 +7211,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>55</v>
@@ -7215,19 +7226,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>411</v>
+        <v>168</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>245</v>
+        <v>409</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7252,13 +7263,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7276,10 +7287,10 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>55</v>
@@ -7294,24 +7305,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7331,22 +7342,22 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>164</v>
+        <v>415</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>416</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7371,13 +7382,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7395,7 +7406,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7404,7 +7415,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7413,19 +7424,19 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>418</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7434,14 +7445,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7453,19 +7464,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>264</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>266</v>
+        <v>422</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7490,13 +7501,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7520,10 +7531,10 @@
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7532,28 +7543,28 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7572,19 +7583,19 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>421</v>
+        <v>268</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>422</v>
+        <v>269</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7609,13 +7620,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7633,7 +7644,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7651,23 +7662,142 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
+      <c r="N53" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO52">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7677,7 +7807,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="415">
   <si>
     <t>Path</t>
   </si>
@@ -456,7 +456,7 @@
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
+    <t>Currently not used in BundledCognitiveStatus.</t>
   </si>
   <si>
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
@@ -485,9 +485,6 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
@@ -506,7 +503,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>Should have the value 'final' to indicate the assessment is complete.</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -549,7 +546,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation</t>
+    <t>For a Post-Acute Care Assessment, should have the value 'survey'.</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -559,9 +556,6 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>If this is from a Post-Acute Care Assessment, value should be survey.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
@@ -580,7 +574,7 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
+    <t>For a Post-Acute Care Assessment, should include a LOINC code and text for the kind of assessment.</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -590,9 +584,6 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://loinc.org</t>
@@ -623,7 +614,7 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about</t>
+    <t>Should only reference a Patient resource</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -654,9 +645,6 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
@@ -709,7 +697,7 @@
   </si>
   <si>
     <t>dateTime
-PeriodTiminginstant</t>
+Period</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -743,9 +731,6 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
@@ -768,7 +753,7 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation</t>
+    <t xml:space="preserve">The person who performed the assessment. May also be used to provide the practitioner role and organization. </t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -790,10 +775,6 @@
   </si>
   <si>
     <t>Observation.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConcept</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -827,9 +808,6 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
   </si>
   <si>
@@ -840,6 +818,9 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
@@ -860,9 +841,6 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
@@ -918,9 +896,6 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
@@ -952,9 +927,6 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done</t>
-  </si>
-  <si>
     <t>Indicates the mechanism used to perform the observation.</t>
   </si>
   <si>
@@ -983,9 +955,6 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
     <t>The specimen that was used when this observation was made.</t>
   </si>
   <si>
@@ -1011,9 +980,6 @@
 </t>
   </si>
   <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
     <t>The device used to generate the observation data.</t>
   </si>
   <si>
@@ -1037,9 +1003,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
@@ -1269,9 +1232,6 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
-  </si>
-  <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
@@ -1348,6 +1308,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1524,7 +1487,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.1484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1537,7 +1500,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="64.703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -3229,13 +3192,13 @@
         <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3300,16 +3263,16 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3320,7 +3283,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3346,16 +3309,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3380,14 +3343,14 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3404,7 +3367,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3419,19 +3382,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3439,7 +3402,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3462,19 +3425,19 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3501,11 +3464,9 @@
       <c r="W17" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="X17" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3523,7 +3484,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3547,10 +3508,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3558,11 +3519,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3581,19 +3542,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3618,11 +3579,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3640,7 +3601,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3655,27 +3616,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3698,19 +3659,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3759,7 +3720,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3774,19 +3735,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3794,7 +3755,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3817,16 +3778,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3876,7 +3837,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3897,13 +3858,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3911,11 +3872,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3934,19 +3895,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3995,7 +3956,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4010,19 +3971,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4030,11 +3991,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4053,19 +4014,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4114,7 +4075,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4129,19 +4090,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4149,7 +4110,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4172,16 +4133,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4231,7 +4192,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4252,13 +4213,13 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4266,7 +4227,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4289,17 +4250,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4348,7 +4309,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4363,19 +4324,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4383,7 +4344,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4406,19 +4367,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4467,7 +4428,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4476,7 +4437,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4485,24 +4446,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4525,19 +4486,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4562,13 +4523,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4586,7 +4547,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4595,7 +4556,7 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
@@ -4610,7 +4571,7 @@
         <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4621,11 +4582,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4644,19 +4605,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>139</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4681,13 +4642,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4705,7 +4666,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4723,24 +4684,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4763,19 +4724,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4824,7 +4785,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4845,10 +4806,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4859,7 +4820,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4882,16 +4843,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4917,13 +4878,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4941,7 +4902,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4959,24 +4920,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4999,19 +4960,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5036,13 +4997,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5060,7 +5021,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5081,10 +5042,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5095,7 +5056,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5118,16 +5079,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5177,7 +5138,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5195,24 +5156,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5235,16 +5196,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5294,7 +5255,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5312,24 +5273,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5352,19 +5313,19 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5413,7 +5374,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5425,7 +5386,7 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5434,10 +5395,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5448,7 +5409,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5474,10 +5435,10 @@
         <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5528,7 +5489,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5552,7 +5513,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5563,7 +5524,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5589,10 +5550,10 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>124</v>
@@ -5645,7 +5606,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5669,7 +5630,7 @@
         <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5680,11 +5641,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5706,10 +5667,10 @@
         <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>124</v>
@@ -5764,7 +5725,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5799,7 +5760,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5822,13 +5783,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5879,7 +5840,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5888,7 +5849,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5900,10 +5861,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5914,7 +5875,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5937,13 +5898,13 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5994,7 +5955,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6003,7 +5964,7 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>67</v>
@@ -6015,10 +5976,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6029,7 +5990,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6052,19 +6013,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6092,10 +6053,10 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6113,7 +6074,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6131,13 +6092,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6148,7 +6109,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6171,19 +6132,19 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6208,13 +6169,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6232,7 +6193,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6250,13 +6211,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6267,7 +6228,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6290,17 +6251,17 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6349,7 +6310,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6373,7 +6334,7 @@
         <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6384,7 +6345,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6410,10 +6371,10 @@
         <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6464,7 +6425,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6485,10 +6446,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6499,7 +6460,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6522,16 +6483,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6581,7 +6542,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6602,10 +6563,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6616,7 +6577,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6639,16 +6600,16 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6698,7 +6659,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6719,10 +6680,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6733,7 +6694,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6756,19 +6717,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>398</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6817,7 +6778,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6838,10 +6799,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6852,7 +6813,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6878,10 +6839,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6932,7 +6893,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6956,7 +6917,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6967,7 +6928,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6993,10 +6954,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>124</v>
@@ -7049,7 +7010,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7073,7 +7034,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7084,11 +7045,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7110,10 +7071,10 @@
         <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>124</v>
@@ -7168,7 +7129,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7203,7 +7164,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7226,19 +7187,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7263,13 +7224,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7287,7 +7248,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>55</v>
@@ -7305,16 +7266,16 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7322,7 +7283,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7345,19 +7306,19 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7406,7 +7367,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7424,24 +7385,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7464,19 +7425,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7501,13 +7462,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7525,7 +7486,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7534,7 +7495,7 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7549,7 +7510,7 @@
         <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7560,11 +7521,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7583,19 +7544,19 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>268</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7620,13 +7581,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7644,7 +7605,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7662,24 +7623,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7705,16 +7666,16 @@
         <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7763,7 +7724,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7784,10 +7745,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -558,6 +558,9 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
@@ -816,9 +819,6 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -3462,11 +3462,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3508,10 +3508,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3519,11 +3519,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3545,16 +3545,16 @@
         <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3579,11 +3579,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3601,7 +3601,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3616,27 +3616,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3659,19 +3659,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3720,7 +3720,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3735,19 +3735,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3755,7 +3755,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3778,16 +3778,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3837,7 +3837,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3858,13 +3858,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3872,11 +3872,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3895,19 +3895,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3956,7 +3956,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3971,19 +3971,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3991,11 +3991,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4014,19 +4014,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4075,7 +4075,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4090,19 +4090,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4133,16 +4133,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4192,7 +4192,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4213,13 +4213,13 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4250,17 +4250,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4309,7 +4309,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4324,19 +4324,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4370,16 +4370,16 @@
         <v>167</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4428,7 +4428,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4437,7 +4437,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4446,24 +4446,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4492,13 +4492,13 @@
         <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4523,7 +4523,7 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>256</v>
@@ -4547,7 +4547,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4642,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>265</v>
@@ -7199,7 +7199,7 @@
         <v>397</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7269,13 +7269,13 @@
         <v>400</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7312,13 +7312,13 @@
         <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>404</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7388,16 +7388,16 @@
         <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7437,7 +7437,7 @@
         <v>409</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7462,7 +7462,7 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>256</v>
@@ -7581,7 +7581,7 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>265</v>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -384,7 +384,7 @@
     <t>device-use</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://pacioproject.org/StructureDefinition/device-patient-used}
+    <t xml:space="preserve">Extension {https://paciowg.github.io/cognitive-status-ig/StructureDefinition/device-patient-used}
 </t>
   </si>
   <si>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -3999,7 +3999,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>55</v>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -384,7 +384,7 @@
     <t>device-use</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/cognitive-status-ig/StructureDefinition/device-patient-used}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-cs/StructureDefinition/device-patient-used}
 </t>
   </si>
   <si>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="426">
   <si>
     <t>Path</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -159,14 +162,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
   </si>
   <si>
     <t>Event</t>
@@ -518,10 +521,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -564,26 +564,50 @@
     <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="laboratory"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Name
-</t>
+    <t>Name
+Test NameObservation Identifer</t>
   </si>
   <si>
     <t>For a Post-Acute Care Assessment, should include a LOINC code and text for the kind of assessment.</t>
   </si>
   <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
+  </si>
+  <si>
+    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -613,7 +637,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -706,13 +730,21 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us-core-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -780,10 +812,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+    <t>Result Value</t>
+  </si>
+  <si>
+    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -792,8 +824,12 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>obs-7
+us-core-2us-core-3us-core-4</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -821,14 +857,11 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+us-core-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1288,6 +1321,9 @@
     <t>Actual component result</t>
   </si>
   <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1305,6 +1341,13 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1468,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1510,14 +1553,15 @@
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="26.89453125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.56640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1644,107 +1688,110 @@
       <c r="AO1" t="s" s="1">
         <v>40</v>
       </c>
+      <c r="AP1" t="s" s="1">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>51</v>
@@ -1756,1286 +1803,1319 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP7" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AD9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG11" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP11" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>134</v>
@@ -3044,360 +3124,370 @@
         <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP15" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="X16" t="s" s="2">
         <v>159</v>
       </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
         <v>160</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AO16" t="s" s="2">
-        <v>45</v>
+      <c r="AP16" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3406,23 +3496,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>167</v>
@@ -3440,26 +3530,26 @@
         <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>172</v>
@@ -3469,77 +3559,80 @@
         <v>173</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>167</v>
@@ -3548,672 +3641,689 @@
         <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG18" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" t="s" s="2">
+      <c r="AH18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="AO20" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
+      </c>
+      <c r="AP20" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>206</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AH21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>45</v>
+      <c r="AP21" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>231</v>
@@ -4222,152 +4332,158 @@
         <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>233</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>237</v>
       </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AN24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>45</v>
+      <c r="AP24" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>243</v>
@@ -4375,240 +4491,244 @@
       <c r="L25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="O25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AI25" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="O26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AI26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="AJ26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AI26" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN26" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>261</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>262</v>
@@ -4620,202 +4740,206 @@
         <v>264</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="X27" s="2"/>
+      <c r="Y27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AI27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO27" t="s" s="2">
-        <v>270</v>
+        <v>46</v>
+      </c>
+      <c r="AP27" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="O28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -4824,234 +4948,240 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>283</v>
+        <v>46</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>284</v>
+        <v>46</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO29" t="s" s="2">
-        <v>288</v>
+        <v>46</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5060,115 +5190,120 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>46</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>304</v>
+        <v>46</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -5177,29 +5312,29 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>306</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>307</v>
@@ -5209,82 +5344,85 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AN32" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>312</v>
       </c>
     </row>
@@ -5294,29 +5432,29 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>314</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>315</v>
@@ -5324,87 +5462,88 @@
       <c r="M33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>317</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>313</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
@@ -5413,845 +5552,866 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="M34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG34" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>46</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N36" t="s" s="2">
         <v>125</v>
       </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG36" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH37" t="s" s="2">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>341</v>
+        <v>46</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>352</v>
+        <v>46</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="O40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Y40" t="s" s="2">
+      <c r="Z40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>363</v>
+        <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>364</v>
@@ -6259,1506 +6419,1667 @@
       <c r="L41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG41" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AH41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AF41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>57</v>
+        <v>371</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>373</v>
+        <v>58</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>377</v>
+        <v>46</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>377</v>
+        <v>46</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>139</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE45" t="s" s="2">
+      <c r="AH45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="AN45" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG46" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
+        <v>398</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>325</v>
+        <v>46</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N48" t="s" s="2">
         <v>125</v>
       </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG48" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>397</v>
+        <v>125</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>244</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>405</v>
+        <v>46</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>249</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>251</v>
+        <v>193</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>167</v>
+        <v>410</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AI51" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AN51" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>261</v>
+        <v>46</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>263</v>
+        <v>418</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>264</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W52" t="s" s="2">
         <v>172</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="Z52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO52" t="s" s="2">
-        <v>270</v>
+        <v>46</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>270</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG53" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R53" t="s" s="2">
+      <c r="AH53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="S53" t="s" s="2">
+      <c r="G54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG54" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="T53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>45</v>
+      <c r="AH54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7768,7 +8089,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="424">
   <si>
     <t>Path</t>
   </si>
@@ -546,7 +546,7 @@
 </t>
   </si>
   <si>
-    <t>For a Post-Acute Care Assessment, should have the value 'survey'.</t>
+    <t>Classification of  type of observation</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -558,10 +558,10 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -575,9 +575,6 @@
   </si>
   <si>
     <t>Laboratory</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -588,12 +585,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
     <t>Observation.code</t>
   </si>
   <si>
@@ -611,6 +602,9 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>http://loinc.org</t>
@@ -1544,7 +1538,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3503,7 +3497,7 @@
         <v>56</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>57</v>
@@ -3552,9 +3546,11 @@
         <v>46</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
         <v>173</v>
       </c>
@@ -3638,7 +3634,7 @@
         <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>169</v>
@@ -3657,7 +3653,7 @@
         <v>46</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>46</v>
@@ -3675,10 +3671,10 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>46</v>
@@ -3734,11 +3730,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3760,16 +3756,16 @@
         <v>167</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>46</v>
@@ -3794,11 +3790,11 @@
         <v>46</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>46</v>
@@ -3816,7 +3812,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>56</v>
@@ -3831,30 +3827,30 @@
         <v>68</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3877,19 +3873,19 @@
         <v>57</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>46</v>
@@ -3938,7 +3934,7 @@
         <v>46</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -3953,22 +3949,22 @@
         <v>68</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>46</v>
@@ -3976,7 +3972,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3999,16 +3995,16 @@
         <v>57</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4058,7 +4054,7 @@
         <v>46</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -4082,13 +4078,13 @@
         <v>46</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>46</v>
@@ -4096,11 +4092,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4119,19 +4115,19 @@
         <v>57</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>46</v>
@@ -4180,7 +4176,7 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
@@ -4198,19 +4194,19 @@
         <v>46</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>46</v>
@@ -4218,11 +4214,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4241,19 +4237,19 @@
         <v>57</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
@@ -4302,7 +4298,7 @@
         <v>46</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4311,28 +4307,28 @@
         <v>56</v>
       </c>
       <c r="AH23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AI23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>46</v>
@@ -4340,7 +4336,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4363,16 +4359,16 @@
         <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4422,7 +4418,7 @@
         <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4446,13 +4442,13 @@
         <v>46</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>46</v>
@@ -4460,7 +4456,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4483,17 +4479,17 @@
         <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>46</v>
@@ -4542,7 +4538,7 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -4560,19 +4556,19 @@
         <v>46</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>46</v>
@@ -4580,7 +4576,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4606,16 +4602,16 @@
         <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -4664,7 +4660,7 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
@@ -4673,36 +4669,36 @@
         <v>56</v>
       </c>
       <c r="AH26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AI26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4731,13 +4727,13 @@
         <v>140</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -4762,11 +4758,11 @@
         <v>46</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>46</v>
@@ -4784,7 +4780,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -4793,13 +4789,13 @@
         <v>56</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>68</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>46</v>
@@ -4811,7 +4807,7 @@
         <v>99</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>46</v>
@@ -4822,11 +4818,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4851,13 +4847,13 @@
         <v>140</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -4882,13 +4878,13 @@
         <v>46</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>46</v>
@@ -4906,7 +4902,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -4927,24 +4923,24 @@
         <v>46</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4967,19 +4963,19 @@
         <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>46</v>
@@ -5028,7 +5024,7 @@
         <v>46</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5052,10 +5048,10 @@
         <v>46</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>46</v>
@@ -5066,7 +5062,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5095,10 +5091,10 @@
         <v>140</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5124,14 +5120,14 @@
         <v>46</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="X30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>46</v>
       </c>
@@ -5148,7 +5144,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5169,24 +5165,24 @@
         <v>46</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5215,13 +5211,13 @@
         <v>140</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>46</v>
@@ -5246,13 +5242,13 @@
         <v>46</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>46</v>
@@ -5270,7 +5266,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5294,10 +5290,10 @@
         <v>46</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>46</v>
@@ -5308,7 +5304,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5331,16 +5327,16 @@
         <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5390,7 +5386,7 @@
         <v>46</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5411,24 +5407,24 @@
         <v>46</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5451,16 +5447,16 @@
         <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5510,7 +5506,7 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5531,24 +5527,24 @@
         <v>46</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5571,19 +5567,19 @@
         <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>46</v>
@@ -5632,7 +5628,7 @@
         <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -5644,22 +5640,22 @@
         <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>46</v>
@@ -5670,7 +5666,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5696,10 +5692,10 @@
         <v>58</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5750,7 +5746,7 @@
         <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -5777,7 +5773,7 @@
         <v>46</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>46</v>
@@ -5788,7 +5784,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5814,10 +5810,10 @@
         <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>125</v>
@@ -5870,7 +5866,7 @@
         <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -5897,7 +5893,7 @@
         <v>46</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>46</v>
@@ -5908,11 +5904,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5934,10 +5930,10 @@
         <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>125</v>
@@ -5992,7 +5988,7 @@
         <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6030,7 +6026,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6053,13 +6049,13 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6110,7 +6106,7 @@
         <v>46</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -6119,7 +6115,7 @@
         <v>56</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>68</v>
@@ -6134,10 +6130,10 @@
         <v>46</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>46</v>
@@ -6148,7 +6144,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6171,13 +6167,13 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6228,7 +6224,7 @@
         <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6237,7 +6233,7 @@
         <v>56</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>68</v>
@@ -6252,10 +6248,10 @@
         <v>46</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>46</v>
@@ -6266,7 +6262,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6292,16 +6288,16 @@
         <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>46</v>
@@ -6329,10 +6325,10 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>46</v>
@@ -6350,7 +6346,7 @@
         <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6371,13 +6367,13 @@
         <v>46</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>46</v>
@@ -6388,7 +6384,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6414,16 +6410,16 @@
         <v>167</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
@@ -6448,13 +6444,13 @@
         <v>46</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>46</v>
@@ -6472,7 +6468,7 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6493,13 +6489,13 @@
         <v>46</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>46</v>
@@ -6510,7 +6506,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6533,17 +6529,17 @@
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>46</v>
@@ -6592,7 +6588,7 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6619,7 +6615,7 @@
         <v>46</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>46</v>
@@ -6630,7 +6626,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6656,10 +6652,10 @@
         <v>58</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6710,7 +6706,7 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6734,10 +6730,10 @@
         <v>46</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>46</v>
@@ -6748,7 +6744,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6771,16 +6767,16 @@
         <v>57</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6830,7 +6826,7 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -6854,10 +6850,10 @@
         <v>46</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>46</v>
@@ -6868,7 +6864,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6891,16 +6887,16 @@
         <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6950,7 +6946,7 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -6974,10 +6970,10 @@
         <v>46</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>46</v>
@@ -6988,7 +6984,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7011,19 +7007,19 @@
         <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>46</v>
@@ -7072,7 +7068,7 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7096,10 +7092,10 @@
         <v>46</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
@@ -7110,7 +7106,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7136,10 +7132,10 @@
         <v>58</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7190,7 +7186,7 @@
         <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7217,7 +7213,7 @@
         <v>46</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>46</v>
@@ -7228,7 +7224,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7254,10 +7250,10 @@
         <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>125</v>
@@ -7310,7 +7306,7 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
@@ -7337,7 +7333,7 @@
         <v>46</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>46</v>
@@ -7348,11 +7344,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7374,10 +7370,10 @@
         <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>125</v>
@@ -7432,7 +7428,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7470,7 +7466,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7496,16 +7492,16 @@
         <v>167</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>46</v>
@@ -7530,13 +7526,13 @@
         <v>46</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>46</v>
@@ -7554,7 +7550,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>56</v>
@@ -7575,16 +7571,16 @@
         <v>46</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>46</v>
@@ -7592,7 +7588,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7615,19 +7611,19 @@
         <v>57</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>46</v>
@@ -7676,7 +7672,7 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -7697,24 +7693,24 @@
         <v>46</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7740,16 +7736,16 @@
         <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>46</v>
@@ -7774,13 +7770,13 @@
         <v>46</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>46</v>
@@ -7798,7 +7794,7 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -7807,7 +7803,7 @@
         <v>56</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>68</v>
@@ -7825,7 +7821,7 @@
         <v>99</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>46</v>
@@ -7836,11 +7832,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7862,16 +7858,16 @@
         <v>167</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>46</v>
@@ -7896,13 +7892,13 @@
         <v>46</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>46</v>
@@ -7920,7 +7916,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -7941,24 +7937,24 @@
         <v>46</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7984,16 +7980,16 @@
         <v>46</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>46</v>
@@ -8042,7 +8038,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8066,10 +8062,10 @@
         <v>46</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>46</v>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="423">
   <si>
     <t>Path</t>
   </si>
@@ -607,7 +607,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -782,7 +782,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The person who performed the assessment. May also be used to provide the practitioner role and organization. </t>
+    <t>The person who performed the assessment. May also be used to provide the practitioner role and organization.</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -1296,9 +1296,6 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1524,7 +1521,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.1484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -7532,7 +7529,7 @@
         <v>404</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>405</v>
+        <v>186</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>46</v>
@@ -7571,7 +7568,7 @@
         <v>46</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>189</v>
@@ -7588,7 +7585,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7611,16 +7608,16 @@
         <v>57</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>252</v>
@@ -7672,7 +7669,7 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
@@ -7693,7 +7690,7 @@
         <v>46</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>256</v>
@@ -7710,7 +7707,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7736,13 +7733,13 @@
         <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>262</v>
@@ -7773,7 +7770,7 @@
         <v>185</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Y52" t="s" s="2">
         <v>263</v>
@@ -7794,7 +7791,7 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -7803,7 +7800,7 @@
         <v>56</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>68</v>
@@ -7832,7 +7829,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7858,7 +7855,7 @@
         <v>167</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>268</v>
@@ -7916,7 +7913,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -7954,7 +7951,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7980,10 +7977,10 @@
         <v>46</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>322</v>
@@ -8038,7 +8035,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="414">
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -162,14 +159,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -387,7 +384,7 @@
     <t>device-use</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-cs/StructureDefinition/device-patient-used}
+    <t xml:space="preserve">Extension {http://paciowg.github.io/cognitive-status-ig/StructureDefinition/device-patient-used}
 </t>
   </si>
   <si>
@@ -521,7 +518,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -546,7 +546,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation</t>
+    <t>For a Post-Acute Care Assessment, should have the value 'survey'.</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -558,53 +558,35 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="laboratory"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Name
-Test NameObservation Identifer</t>
-  </si>
-  <si>
     <t>For a Post-Acute Care Assessment, should include a LOINC code and text for the kind of assessment.</t>
   </si>
   <si>
-    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
-  </si>
-  <si>
-    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
@@ -724,21 +706,13 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -806,10 +780,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Result Value</t>
-  </si>
-  <si>
-    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -818,12 +792,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>obs-7
-us-core-2us-core-3us-core-4</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -851,11 +821,14 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-us-core-2</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1312,9 +1285,6 @@
     <t>Actual component result</t>
   </si>
   <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1332,13 +1302,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1502,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP54"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1535,7 +1498,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.7890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -1544,15 +1507,14 @@
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="26.89453125" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.56640625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1679,110 +1641,107 @@
       <c r="AO1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="1">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>51</v>
@@ -1794,1319 +1753,1286 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="AJ4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH10" t="s" s="2">
+      <c r="AJ10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AK10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G11" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="O12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>134</v>
@@ -3115,370 +3041,360 @@
         <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="I16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
         <v>160</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3487,23 +3403,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>167</v>
@@ -3521,1449 +3437,1413 @@
         <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X17" t="s" s="2">
         <v>172</v>
       </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
         <v>173</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AP17" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X18" t="s" s="2">
         <v>172</v>
       </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>46</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="G24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>46</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G27" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH27" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>46</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="AF28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>280</v>
@@ -4971,1082 +4851,1051 @@
       <c r="M29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>282</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>284</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>46</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="AF30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>46</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>46</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>46</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>68</v>
+        <v>318</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>323</v>
       </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>325</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>122</v>
+        <v>331</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>336</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>46</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>343</v>
@@ -6057,448 +5906,438 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AI38" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AN38" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>46</v>
+        <v>351</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>46</v>
+        <v>352</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>167</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -6507,356 +6346,347 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>368</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>46</v>
+        <v>371</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>373</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="G43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>46</v>
+        <v>377</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>377</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>46</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -6865,118 +6695,117 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>385</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>46</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -6985,480 +6814,468 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J46" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>391</v>
+        <v>324</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F47" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>122</v>
+        <v>331</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="M48" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>125</v>
+        <v>397</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>46</v>
+        <v>398</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>46</v>
+        <v>399</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -7467,612 +7284,478 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F50" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>167</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>402</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>403</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>184</v>
+        <v>246</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>46</v>
+        <v>404</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>405</v>
+        <v>249</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>46</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>411</v>
+        <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>262</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>415</v>
+        <v>263</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>416</v>
+        <v>265</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH52" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>46</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>268</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP54">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8082,7 +7765,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="423">
   <si>
     <t>Path</t>
   </si>
@@ -122,42 +122,938 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Argonaut-DQ-DSTU2</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Concept Domain Binding</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Attribute Binding</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Vital Signs
+MeasurementResultsTests</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Measurements and simple assertions</t>
+  </si>
+  <si>
+    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
+  </si>
+  <si>
+    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity|</t>
+  </si>
+  <si>
+    <t>OBX</t>
+  </si>
+  <si>
+    <t>Observation[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Observation.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Observation.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Observation.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Observation.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Observation.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>event-location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {event-location}
+</t>
+  </si>
+  <si>
+    <t>Where event occurred</t>
+  </si>
+  <si>
+    <t>The principal physical location where the {{title}} was performed.</t>
+  </si>
+  <si>
+    <t>May reference only *Provenance* resources deemed “relevant” or important. This element does not point to the Provenance associated with the current version of the resource - as it would be created after this version existed. The Provenance for the current version can be retrieved with a [` _revinclude`](search.html#revinclude).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>EVN.7</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role</t>
+  </si>
+  <si>
+    <t>device-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-cs/StructureDefinition/device-patient-used}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>Currently not used in BundledCognitiveStatus.</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
+  </si>
+  <si>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>Should have the value 'final' to indicate the assessment is complete.</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="laboratory"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t>Name
+Test NameObservation Identifer</t>
+  </si>
+  <si>
+    <t>For a Post-Acute Care Assessment, should include a LOINC code and text for the kind of assessment.</t>
+  </si>
+  <si>
+    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
+  </si>
+  <si>
+    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
+</t>
+  </si>
+  <si>
+    <t>Should only reference a Patient resource</t>
+  </si>
+  <si>
+    <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
+  </si>
+  <si>
+    <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.</t>
+  </si>
+  <si>
+    <t>Observations have no value if you don't know who or what they're about.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>participation[typeCode=RTGT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Observation.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
+  </si>
+  <si>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>Observation.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Healthcare event during which this observation is made</t>
+  </si>
+  <si>
+    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
+  </si>
+  <si>
+    <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
+  </si>
+  <si>
+    <t>Event.context</t>
+  </si>
+  <si>
+    <t>PV1</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>Observation.effective[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence
+</t>
+  </si>
+  <si>
+    <t>dateTime
+Period</t>
+  </si>
+  <si>
+    <t>Clinically relevant time/time-period for observation</t>
+  </si>
+  <si>
+    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+  </si>
+  <si>
+    <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us-core-1
+</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBX-14, and/or OBX-19 after v2.4  (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>Observation.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
+    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
+  </si>
+  <si>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+  </si>
+  <si>
+    <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Observation.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>The person who performed the assessment. May also be used to provide the practitioner role and organization.</t>
+  </si>
+  <si>
+    <t>Who was responsible for asserting the observed value as "true".</t>
+  </si>
+  <si>
+    <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>OBX.15 / (Practitioner)  OBX-16,  PRT-5:PRT-4='RO' /  (Device)  OBX-18 , PRT-10:PRT-4='EQUIP' / (Organization)  OBX-23,  PRT-8:PRT-4='PO'</t>
+  </si>
+  <si>
+    <t>participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>Result Value</t>
+  </si>
+  <si>
+    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t>obs-7
+us-core-2us-core-3us-core-4</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
+  </si>
+  <si>
+    <t>&lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>OBX.2, OBX.5, OBX.6</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>Observation.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+  </si>
+  <si>
+    <t>For many results it is necessary to handle exceptional values in measurements.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>obs-6
+us-core-2</t>
+  </si>
+  <si>
+    <t>value.nullFlavor</t>
+  </si>
+  <si>
+    <t>Observation.interpretation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abnormal Flag
+</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
+  </si>
+  <si>
+    <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
+  </si>
+  <si>
+    <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
+  </si>
+  <si>
+    <t>Codes identifying interpretations of observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values|</t>
+  </si>
+  <si>
+    <t>OBX-8</t>
+  </si>
+  <si>
+    <t>interpretationCode</t>
+  </si>
+  <si>
+    <t>363713009 |Has interpretation|</t>
+  </si>
+  <si>
+    <t>Observation.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments about the observation</t>
+  </si>
+  <si>
+    <t>Comments about the observation or the results.</t>
+  </si>
+  <si>
+    <t>May include general statements about the observation, or statements about significant, unexpected or unreliable results values, or information about its source when relevant to its interpretation.</t>
+  </si>
+  <si>
+    <t>Need to be able to provide free text additional information.</t>
+  </si>
+  <si>
+    <t>NTE.3 (partner NTE to OBX, or sometimes another (child?) OBX)</t>
+  </si>
+  <si>
+    <t>subjectOf.observationEvent[code="annotation"].value</t>
+  </si>
+  <si>
+    <t>Observation.bodySite</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.method</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
+  </si>
+  <si>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+  </si>
+  <si>
+    <t>OBX-17</t>
+  </si>
+  <si>
+    <t>methodCode</t>
+  </si>
+  <si>
+    <t>Observation.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>The specimen that was used when this observation was made.</t>
+  </si>
+  <si>
+    <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
+  </si>
+  <si>
+    <t>&lt; 123038009 |Specimen|</t>
+  </si>
+  <si>
+    <t>SPM segment</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SPC].specimen</t>
+  </si>
+  <si>
+    <t>704319004 |Inherent in|</t>
+  </si>
+  <si>
+    <t>Observation.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
+</t>
+  </si>
+  <si>
+    <t>The device used to generate the observation data.</t>
+  </si>
+  <si>
+    <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
+  </si>
+  <si>
+    <t>&lt; 49062001 |Device|</t>
+  </si>
+  <si>
+    <t>OBX-17 / PRT -10</t>
+  </si>
+  <si>
+    <t>participation[typeCode=DEV]</t>
+  </si>
+  <si>
+    <t>424226004 |Using device|</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
+  </si>
+  <si>
+    <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
+  </si>
+  <si>
+    <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
+  </si>
+  <si>
+    <t>OBX.7</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=REFV]/target[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -170,98 +1066,294 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
+    <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
+    <t>Low Range, if relevant</t>
+  </si>
+  <si>
+    <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-3
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>event-location</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {event-location}
+    <t>OBX-7</t>
+  </si>
+  <si>
+    <t>value:IVL_PQ.low</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.high</t>
+  </si>
+  <si>
+    <t>High Range, if relevant</t>
+  </si>
+  <si>
+    <t>The value of the high bound of the reference range.  The high bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the high bound is omitted,  it is assumed to be meaningless (e.g. reference range is &gt;= 2.3).</t>
+  </si>
+  <si>
+    <t>value:IVL_PQ.high</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.type</t>
+  </si>
+  <si>
+    <t>Reference range qualifier</t>
+  </si>
+  <si>
+    <t>Codes to indicate the what part of the targeted reference population it applies to. For example, the normal or therapeutic range.</t>
+  </si>
+  <si>
+    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal range is assumed.</t>
+  </si>
+  <si>
+    <t>Need to be able to say what kind of reference range this is - normal, recommended, therapeutic, etc.,  - for proper interpretation.</t>
+  </si>
+  <si>
+    <t>Code for the meaning of a reference range.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+  </si>
+  <si>
+    <t>&lt; 260245000 |Findings values| OR  +&lt; 365860008 |General clinical state finding| +OR +&lt; 250171008 |Clinical history or observation findings| OR  +&lt; 415229000 |Racial group| OR +&lt; 365400002 |Finding of puberty stage| OR+&lt; 443938003 |Procedure carried out on subject|</t>
+  </si>
+  <si>
+    <t>OBX-10</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.appliesTo</t>
+  </si>
+  <si>
+    <t>Reference range population</t>
+  </si>
+  <si>
+    <t>Codes to indicate the target population this reference range applies to.  For example, a reference range may be based on the normal population or a particular sex or race.  Multiple `appliesTo`  are interpreted as an "AND" of the target populations.  For example, to represent a target population of African American females, both a code of female and a code for African American would be used.</t>
+  </si>
+  <si>
+    <t>This SHOULD be populated if there is more than one range.  If this element is not present then the normal population is assumed.</t>
+  </si>
+  <si>
+    <t>Need to be able to identify the target population for proper interpretation.</t>
+  </si>
+  <si>
+    <t>Codes identifying the population the reference range applies to.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range
 </t>
   </si>
   <si>
-    <t>Where event occurred</t>
-  </si>
-  <si>
-    <t>The principal physical location where the {{title}} was performed.</t>
-  </si>
-  <si>
-    <t>May reference only *Provenance* resources deemed “relevant” or important. This element does not point to the Provenance associated with the current version of the resource - as it would be created after this version existed. The Provenance for the current version can be retrieved with a [` _revinclude`](search.html#revinclude).</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role</t>
-  </si>
-  <si>
-    <t>device-use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/cognitive-status-ig//StructureDefinition/device-patient-used}
+    <t>Applicable age range, if relevant</t>
+  </si>
+  <si>
+    <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
+  </si>
+  <si>
+    <t>Some analytes vary greatly over age.</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
+  </si>
+  <si>
+    <t>Observation.referenceRange.text</t>
+  </si>
+  <si>
+    <t>Text based reference range in an observation</t>
+  </si>
+  <si>
+    <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
+  </si>
+  <si>
+    <t>value:ST</t>
+  </si>
+  <si>
+    <t>Observation.hasMember</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>Related resource that belongs to the Observation group</t>
+  </si>
+  <si>
+    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+  </si>
+  <si>
+    <t>Relationships established by OBX-4 usage</t>
+  </si>
+  <si>
+    <t>outBoundRelationship</t>
+  </si>
+  <si>
+    <t>Observation.derivedFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/family-member-history-genetics-observation</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t>Related measurements the observation is made from</t>
+  </si>
+  <si>
+    <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
+  </si>
+  <si>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+  </si>
+  <si>
+    <t>.targetObservation</t>
+  </si>
+  <si>
+    <t>Observation.component</t>
+  </si>
+  <si>
+    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
+  </si>
+  <si>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
+  </si>
+  <si>
+    <t>containment by OBX-4?</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=COMP]</t>
+  </si>
+  <si>
+    <t>Observation.component.id</t>
+  </si>
+  <si>
+    <t>Observation.component.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component.code</t>
+  </si>
+  <si>
+    <t>Type of component observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
+  </si>
+  <si>
+    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR +&lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
+    <t>Actual component result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>Observation.component.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the component result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
+    <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation of component result</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
 </sst>
 </file>
@@ -410,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ8"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -419,42 +1511,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="26.89453125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="31.66015625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.56640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -566,717 +1664,6415 @@
       <c r="AJ1" t="s" s="1">
         <v>35</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AJ2" t="s" s="2">
-        <v>37</v>
+      <c r="AK2" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="M3" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>56</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI7" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="AJ7" t="s" s="2">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP7" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>67</v>
+        <v>46</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AB9" s="2"/>
+      <c r="AC9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP11" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP15" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AP20" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP27" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ8">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1286,7 +8082,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI7">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="413">
   <si>
     <t>Path</t>
   </si>
@@ -388,10 +388,7 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>A record indicating what healthcare-related assistive device was used by a patient during a cognitive status assessment.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -2721,10 +2718,10 @@
         <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2799,7 +2796,7 @@
         <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>45</v>
@@ -2810,11 +2807,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2836,16 +2833,16 @@
         <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2894,7 +2891,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2929,7 +2926,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2952,17 +2949,17 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
@@ -3011,7 +3008,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3026,19 +3023,19 @@
         <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3046,11 +3043,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3069,17 +3066,17 @@
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3128,7 +3125,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3143,16 +3140,16 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3163,11 +3160,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3186,16 +3183,16 @@
         <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3245,7 +3242,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3260,16 +3257,16 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3280,7 +3277,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3306,16 +3303,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3340,14 +3337,14 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3364,7 +3361,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3379,19 +3376,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3399,7 +3396,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3422,19 +3419,19 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3459,11 +3456,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3481,7 +3478,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3505,10 +3502,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3516,11 +3513,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3539,19 +3536,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3576,11 +3573,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3598,7 +3595,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3613,27 +3610,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3656,19 +3653,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3717,7 +3714,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3732,19 +3729,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3752,7 +3749,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3775,16 +3772,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3834,7 +3831,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3855,13 +3852,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3869,11 +3866,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3892,19 +3889,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3953,7 +3950,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3968,19 +3965,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3988,11 +3985,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4011,19 +4008,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4072,7 +4069,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4087,19 +4084,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4107,7 +4104,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4130,16 +4127,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4189,7 +4186,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4210,13 +4207,13 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4224,7 +4221,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4247,17 +4244,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4306,7 +4303,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4321,19 +4318,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4341,7 +4338,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4364,19 +4361,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4425,7 +4422,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4434,7 +4431,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4443,24 +4440,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4483,19 +4480,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4520,14 +4517,14 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4544,7 +4541,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4553,7 +4550,7 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
@@ -4568,7 +4565,7 @@
         <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4579,11 +4576,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4602,19 +4599,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4639,14 +4636,14 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4663,7 +4660,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4681,24 +4678,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4721,19 +4718,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4782,7 +4779,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4803,10 +4800,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4817,7 +4814,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4840,16 +4837,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4875,14 +4872,14 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4899,7 +4896,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4917,24 +4914,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4957,19 +4954,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -4994,14 +4991,14 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5018,7 +5015,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5039,10 +5036,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5053,7 +5050,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5076,16 +5073,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5135,7 +5132,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5153,24 +5150,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5193,16 +5190,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5252,7 +5249,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5270,24 +5267,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5310,19 +5307,19 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5371,7 +5368,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5383,19 +5380,19 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5406,7 +5403,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5432,10 +5429,10 @@
         <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5486,7 +5483,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5510,7 +5507,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5521,11 +5518,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5547,13 +5544,13 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5603,7 +5600,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5627,7 +5624,7 @@
         <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5638,11 +5635,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5664,16 +5661,16 @@
         <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5722,7 +5719,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5757,7 +5754,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5780,13 +5777,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5837,7 +5834,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5846,7 +5843,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5858,10 +5855,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5872,7 +5869,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5895,13 +5892,13 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5952,7 +5949,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5961,7 +5958,7 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>67</v>
@@ -5973,10 +5970,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5987,7 +5984,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6010,19 +6007,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6050,11 +6047,11 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6071,7 +6068,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6089,13 +6086,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6106,7 +6103,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6129,19 +6126,19 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6166,14 +6163,14 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6190,7 +6187,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6208,13 +6205,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6225,7 +6222,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6248,17 +6245,17 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6307,7 +6304,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6331,7 +6328,7 @@
         <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6342,7 +6339,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6368,10 +6365,10 @@
         <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6422,7 +6419,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6443,10 +6440,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6457,7 +6454,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6480,16 +6477,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6539,7 +6536,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6560,10 +6557,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6574,7 +6571,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6597,16 +6594,16 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6656,7 +6653,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6677,10 +6674,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6691,7 +6688,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6714,19 +6711,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6775,7 +6772,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6796,10 +6793,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6810,7 +6807,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6836,10 +6833,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6890,7 +6887,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6914,7 +6911,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6925,11 +6922,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6951,13 +6948,13 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7007,7 +7004,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7031,7 +7028,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7042,11 +7039,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7068,16 +7065,16 @@
         <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="M48" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7126,7 +7123,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7161,7 +7158,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7184,19 +7181,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7221,13 +7218,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7245,7 +7242,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>55</v>
@@ -7263,16 +7260,16 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7280,7 +7277,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7303,19 +7300,19 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7364,7 +7361,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7382,24 +7379,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7422,19 +7419,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7459,14 +7456,14 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7483,7 +7480,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7492,7 +7489,7 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7507,7 +7504,7 @@
         <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7518,11 +7515,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7541,19 +7538,19 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7578,14 +7575,14 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7602,7 +7599,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7620,24 +7617,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7663,16 +7660,16 @@
         <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="M53" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7721,7 +7718,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7742,10 +7739,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -388,7 +388,7 @@
 </t>
   </si>
   <si>
-    <t>A record indicating what healthcare-related assistive device was used by a patient during a cognitive status assessment.</t>
+    <t>A record indicating what healthcare-related assistive device was used by a patient during a cognitive status assessment. This extension leverages the DeviceUseStatement resource instead of Device resource so as to indicate appropriately a record of assistive device usage by a patient.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="414">
   <si>
     <t>Path</t>
   </si>
@@ -775,6 +775,10 @@
   </si>
   <si>
     <t>Observation.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConcept</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -4361,19 +4365,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4431,7 +4435,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4440,24 +4444,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4486,13 +4490,13 @@
         <v>138</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4520,10 +4524,10 @@
         <v>171</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4541,7 +4545,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4550,7 +4554,7 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
@@ -4565,7 +4569,7 @@
         <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4576,11 +4580,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4605,13 +4609,13 @@
         <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4639,10 +4643,10 @@
         <v>171</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4660,7 +4664,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4678,24 +4682,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4718,19 +4722,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4779,7 +4783,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4800,10 +4804,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4814,7 +4818,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4843,10 +4847,10 @@
         <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4872,13 +4876,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4896,7 +4900,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4914,24 +4918,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4960,13 +4964,13 @@
         <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -4991,13 +4995,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5015,7 +5019,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5036,10 +5040,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5050,7 +5054,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5073,16 +5077,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5132,7 +5136,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5150,24 +5154,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5190,16 +5194,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5249,7 +5253,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5267,24 +5271,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5307,19 +5311,19 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5368,7 +5372,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5380,7 +5384,7 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5389,10 +5393,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5403,7 +5407,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5429,10 +5433,10 @@
         <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5483,7 +5487,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5507,7 +5511,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5518,7 +5522,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5544,10 +5548,10 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>123</v>
@@ -5600,7 +5604,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5624,7 +5628,7 @@
         <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5635,11 +5639,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5661,10 +5665,10 @@
         <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>123</v>
@@ -5719,7 +5723,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5754,7 +5758,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5777,13 +5781,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5834,7 +5838,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5843,7 +5847,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5855,10 +5859,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5869,7 +5873,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5892,13 +5896,13 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5949,7 +5953,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5958,7 +5962,7 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>67</v>
@@ -5970,10 +5974,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5984,7 +5988,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6010,16 +6014,16 @@
         <v>166</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6047,10 +6051,10 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6068,7 +6072,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6086,13 +6090,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6103,7 +6107,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6129,16 +6133,16 @@
         <v>166</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6163,13 +6167,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6187,7 +6191,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6205,13 +6209,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6222,7 +6226,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6245,17 +6249,17 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6304,7 +6308,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6328,7 +6332,7 @@
         <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6339,7 +6343,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6365,10 +6369,10 @@
         <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6419,7 +6423,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6440,10 +6444,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6454,7 +6458,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6477,16 +6481,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6536,7 +6540,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6557,10 +6561,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6571,7 +6575,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6594,16 +6598,16 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6653,7 +6657,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6674,10 +6678,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6688,7 +6692,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6711,19 +6715,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6772,7 +6776,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6793,10 +6797,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6807,7 +6811,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6833,10 +6837,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6887,7 +6891,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6911,7 +6915,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6922,7 +6926,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6948,10 +6952,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>123</v>
@@ -7004,7 +7008,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7028,7 +7032,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7039,11 +7043,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7065,10 +7069,10 @@
         <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>123</v>
@@ -7123,7 +7127,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7158,7 +7162,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7184,13 +7188,13 @@
         <v>166</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>180</v>
@@ -7218,10 +7222,10 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y49" t="s" s="2">
         <v>181</v>
@@ -7242,7 +7246,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>55</v>
@@ -7260,7 +7264,7 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>184</v>
@@ -7277,7 +7281,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7300,19 +7304,19 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7361,7 +7365,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7379,24 +7383,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7422,16 +7426,16 @@
         <v>166</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7459,10 +7463,10 @@
         <v>171</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7480,7 +7484,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7489,7 +7493,7 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7504,7 +7508,7 @@
         <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7515,11 +7519,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7541,16 +7545,16 @@
         <v>166</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7578,10 +7582,10 @@
         <v>171</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7599,7 +7603,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7617,24 +7621,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7660,16 +7664,16 @@
         <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7718,7 +7722,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7739,10 +7743,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="413">
   <si>
     <t>Path</t>
   </si>
@@ -778,7 +778,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConcept</t>
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1277,10 +1277,6 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -7304,16 +7300,16 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>246</v>
@@ -7383,7 +7379,7 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>249</v>
@@ -7400,7 +7396,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7426,13 +7422,13 @@
         <v>166</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>255</v>
@@ -7484,7 +7480,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7519,7 +7515,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7545,7 +7541,7 @@
         <v>166</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>262</v>
@@ -7603,7 +7599,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7638,7 +7634,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7664,10 +7660,10 @@
         <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>316</v>
@@ -7722,7 +7718,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -500,7 +500,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>Should have the value 'final' to indicate the assessment is complete.</t>
+    <t>Should have the value 'final' when all the observatons are complete.</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -614,7 +614,7 @@
 </t>
   </si>
   <si>
-    <t>Should only reference a Patient resource</t>
+    <t>Should only reference a Patient resource.</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -781,7 +781,7 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual result</t>
+    <t>Whenever possible should use the CodeableConcept type to provide a suitable code to define the concept. As for values like an assessment score, use the Quantity type.</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1481,7 +1481,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="157.19921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
+++ b/build/temp/pages/StructureDefinition-pacio-bcs.xlsx
@@ -453,7 +453,7 @@
 </t>
   </si>
   <si>
-    <t>Currently not used in BundledCognitiveStatus.</t>
+    <t>Currently not used in CognitiveStatusCollection.</t>
   </si>
   <si>
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
